--- a/src/resources/data/testData.xlsx
+++ b/src/resources/data/testData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\mobility-asod-mbiz-master\src\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2381A263-96DE-4CB7-A86F-F95D8A60617C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{978BB625-DADA-4235-9308-F4B732222E39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="734" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -446,7 +446,7 @@
     <t>$.items[*]['fan id']</t>
   </si>
   <si>
-    <t>Login incorrect. Please try again.</t>
+    <t>Login incorrect. Please try again. (0x132120c8)</t>
   </si>
 </sst>
 </file>
@@ -1205,6 +1205,7 @@
     <col min="2" max="2" width="5.54296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="44.90625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.54296875" customWidth="1"/>
     <col min="6" max="6" width="31" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>

--- a/src/resources/data/testData.xlsx
+++ b/src/resources/data/testData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\mobility-asod-mbiz-master\src\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{978BB625-DADA-4235-9308-F4B732222E39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B866156-74D9-410A-8E83-A8AB83B61091}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="734" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="734" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Regression" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="129">
   <si>
     <t>TestID</t>
   </si>
@@ -276,62 +276,6 @@
     <t>Query</t>
   </si>
   <si>
-    <t>TC01_SelectQuery</t>
-  </si>
-  <si>
-    <t>To execute a select query</t>
-  </si>
-  <si>
-    <t>INSERT INTO EmployeeTable (EmployeeName, Address, Age, DOB, Sex, Phone, DOJ, Active)
-VALUES ('Sachin Tendulkar','Home Address of Sachin',30,'04/24/1973','M',987667890123,'01/01/1990',0)</t>
-  </si>
-  <si>
-    <t>To execute a insert query</t>
-  </si>
-  <si>
-    <t>TC02_InsertQuery</t>
-  </si>
-  <si>
-    <t>To execute a delete query</t>
-  </si>
-  <si>
-    <t>SELECT * FROM EmployeeTable</t>
-  </si>
-  <si>
-    <t>TC03_SelectQuery</t>
-  </si>
-  <si>
-    <t>To execute a select query after insert</t>
-  </si>
-  <si>
-    <t>TC05_SelectQuery</t>
-  </si>
-  <si>
-    <t>To execute a select query after delete</t>
-  </si>
-  <si>
-    <t>DELETE FROM EmployeeTable WHERE EmployeeName = 'Sachin Tendulkar'</t>
-  </si>
-  <si>
-    <t>TC04_UpdateQuery</t>
-  </si>
-  <si>
-    <t>To execute a update query</t>
-  </si>
-  <si>
-    <t>UPDATE EmployeeTable SET  Age = 50, Active = 1
-WHERE EmployeeName = 'Sachin Tendulkar'</t>
-  </si>
-  <si>
-    <t>To execute a select query after update</t>
-  </si>
-  <si>
-    <t>TC06_DeleteQuery</t>
-  </si>
-  <si>
-    <t>TC07_SelectQuery</t>
-  </si>
-  <si>
     <t>Issue</t>
   </si>
   <si>
@@ -447,6 +391,33 @@
   </si>
   <si>
     <t>Login incorrect. Please try again. (0x132120c8)</t>
+  </si>
+  <si>
+    <t>TC01_SelectQuery_Oracle</t>
+  </si>
+  <si>
+    <t>TC02_UpdateQuery_Oracle</t>
+  </si>
+  <si>
+    <t>To run a select query</t>
+  </si>
+  <si>
+    <t>To execute an update query</t>
+  </si>
+  <si>
+    <t>SELECT * FROM de_app.de_task where row_id = '2407AutTest1'</t>
+  </si>
+  <si>
+    <t>update de_app.de_task set user_id = 'ad482h' where row_id = '2407AutTest1'</t>
+  </si>
+  <si>
+    <t>To run a select query in POSTRE</t>
+  </si>
+  <si>
+    <t>select * from employee where empid = '0003'</t>
+  </si>
+  <si>
+    <t>TC03_SelectQuery_PostgreSQL</t>
   </si>
 </sst>
 </file>
@@ -862,7 +833,7 @@
         <v>79</v>
       </c>
       <c r="B6" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
@@ -870,7 +841,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
@@ -878,7 +849,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
@@ -937,7 +908,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1108,7 +1079,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1195,8 +1166,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A954124-2682-439B-BF75-C124F90C5D43}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1214,7 +1185,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1240,10 +1211,10 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -1257,13 +1228,13 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
       </c>
       <c r="F3" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -1300,7 +1271,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1323,51 +1294,51 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="D2" t="s">
         <v>80</v>
       </c>
       <c r="E2" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="G2">
         <v>200</v>
       </c>
       <c r="H2" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="D3" t="s">
         <v>80</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="F3" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="G3">
         <v>200</v>
       </c>
       <c r="H3" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -1401,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1424,106 +1395,106 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="B2">
         <v>1113</v>
       </c>
       <c r="C2" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="D2" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="G2" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="H2" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="B3">
         <v>1114</v>
       </c>
       <c r="C3" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="D3" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="G3" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="H3" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="B4">
         <v>1115</v>
       </c>
       <c r="C4" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="D4" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="G4" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="H4" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="B5">
         <v>1116</v>
       </c>
       <c r="C5" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="D5" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="G5" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="H5" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1538,10 +1509,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F66E855F-71DD-4AFC-9C48-E6F935E4E730}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A4" sqref="A1:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1549,7 +1520,7 @@
     <col min="1" max="1" width="24.36328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.54296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="44.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="102.453125" customWidth="1"/>
+    <col min="4" max="4" width="50.7265625" customWidth="1"/>
     <col min="6" max="6" width="31" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1558,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1569,100 +1540,44 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>120</v>
       </c>
       <c r="B2">
-        <v>1467</v>
+        <v>121</v>
       </c>
       <c r="C2" t="s">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c r="D2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>85</v>
+        <v>121</v>
       </c>
       <c r="B3">
-        <v>1468</v>
+        <v>122</v>
       </c>
       <c r="C3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>83</v>
+        <v>123</v>
+      </c>
+      <c r="D3" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>88</v>
+        <v>128</v>
       </c>
       <c r="B4">
-        <v>1469</v>
+        <v>123</v>
       </c>
       <c r="C4" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="D4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>93</v>
-      </c>
-      <c r="B5">
-        <v>1470</v>
-      </c>
-      <c r="C5" t="s">
-        <v>94</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>90</v>
-      </c>
-      <c r="B6">
-        <v>1471</v>
-      </c>
-      <c r="C6" t="s">
-        <v>96</v>
-      </c>
-      <c r="D6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>97</v>
-      </c>
-      <c r="B7">
-        <v>1472</v>
-      </c>
-      <c r="C7" t="s">
-        <v>86</v>
-      </c>
-      <c r="D7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>98</v>
-      </c>
-      <c r="B8">
-        <v>1473</v>
-      </c>
-      <c r="C8" t="s">
-        <v>91</v>
-      </c>
-      <c r="D8" t="s">
-        <v>87</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
